--- a/dados/csv/2023/analise_descritiva/dados/sub-genero.xlsx
+++ b/dados/csv/2023/analise_descritiva/dados/sub-genero.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>modalidade</t>
   </si>
@@ -37,25 +37,43 @@
     <t>arrecadado_sucesso</t>
   </si>
   <si>
-    <t>media_sucesso</t>
-  </si>
-  <si>
-    <t>std_sucesso</t>
-  </si>
-  <si>
-    <t>min_sucesso</t>
-  </si>
-  <si>
-    <t>max_sucesso</t>
+    <t>arrecadado_avg</t>
+  </si>
+  <si>
+    <t>arrecadado_std</t>
+  </si>
+  <si>
+    <t>arrecadado_min</t>
+  </si>
+  <si>
+    <t>arrecadado_max</t>
   </si>
   <si>
     <t>apoio_medio</t>
   </si>
   <si>
+    <t>apoio_std</t>
+  </si>
+  <si>
+    <t>apoio_min</t>
+  </si>
+  <si>
+    <t>apoio_max</t>
+  </si>
+  <si>
     <t>contribuicoes</t>
   </si>
   <si>
-    <t>media_contribuicoes</t>
+    <t>contribuicoes_med</t>
+  </si>
+  <si>
+    <t>contribuicoes_std</t>
+  </si>
+  <si>
+    <t>contribuicoes_min</t>
+  </si>
+  <si>
+    <t>contribuicoes_max</t>
   </si>
   <si>
     <t>menor_ano</t>
@@ -445,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -461,11 +479,17 @@
     <col min="10" max="10" width="9.140625" style="3"/>
     <col min="11" max="11" width="9.140625" style="3"/>
     <col min="12" max="12" width="9.140625" style="3"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="13" max="13" width="9.140625" style="3"/>
+    <col min="14" max="14" width="9.140625" style="3"/>
+    <col min="15" max="15" width="9.140625" style="3"/>
+    <col min="16" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="9.140625" style="1"/>
+    <col min="19" max="19" width="9.140625" style="1"/>
+    <col min="20" max="20" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:22">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -514,13 +538,31 @@
       <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1">
         <v>28</v>
@@ -550,27 +592,45 @@
         <v>353.5789934980466</v>
       </c>
       <c r="L2" s="3">
-        <v>30.9975069667077</v>
-      </c>
-      <c r="M2" s="1">
+        <v>31.16847126718795</v>
+      </c>
+      <c r="M2" s="3">
+        <v>26.9469146898807</v>
+      </c>
+      <c r="N2" s="3">
+        <v>8.140546434454963</v>
+      </c>
+      <c r="O2" s="3">
+        <v>84.0771316599004</v>
+      </c>
+      <c r="P2" s="1">
         <v>37</v>
       </c>
-      <c r="N2" s="1">
+      <c r="Q2" s="1">
         <v>5.285714285714286</v>
       </c>
-      <c r="O2">
+      <c r="R2" s="1">
+        <v>2.497617912751115</v>
+      </c>
+      <c r="S2" s="1">
+        <v>3</v>
+      </c>
+      <c r="T2" s="1">
+        <v>10</v>
+      </c>
+      <c r="U2">
         <v>2016</v>
       </c>
-      <c r="P2">
+      <c r="V2">
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
         <v>9</v>
@@ -600,27 +660,45 @@
         <v>538.4389998789497</v>
       </c>
       <c r="L3" s="3">
-        <v>40.89129143626957</v>
-      </c>
-      <c r="M3" s="1">
+        <v>42.14013096402113</v>
+      </c>
+      <c r="M3" s="3">
+        <v>8.830628986869351</v>
+      </c>
+      <c r="N3" s="3">
+        <v>35.89593332526331</v>
+      </c>
+      <c r="O3" s="3">
+        <v>48.38432860277894</v>
+      </c>
+      <c r="P3" s="1">
         <v>25</v>
       </c>
-      <c r="N3" s="1">
+      <c r="Q3" s="1">
         <v>12.5</v>
       </c>
-      <c r="O3">
+      <c r="R3" s="1">
+        <v>3.535533905932738</v>
+      </c>
+      <c r="S3" s="1">
+        <v>10</v>
+      </c>
+      <c r="T3" s="1">
+        <v>15</v>
+      </c>
+      <c r="U3">
         <v>2021</v>
       </c>
-      <c r="P3">
+      <c r="V3">
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>69</v>
@@ -650,27 +728,45 @@
         <v>1753.365733305352</v>
       </c>
       <c r="L4" s="3">
-        <v>18.08263434560471</v>
-      </c>
-      <c r="M4" s="1">
+        <v>19.42257389357928</v>
+      </c>
+      <c r="M4" s="3">
+        <v>8.876706034650423</v>
+      </c>
+      <c r="N4" s="3">
+        <v>5.929916345397809</v>
+      </c>
+      <c r="O4" s="3">
+        <v>35.80030877323957</v>
+      </c>
+      <c r="P4" s="1">
         <v>307</v>
       </c>
-      <c r="N4" s="1">
+      <c r="Q4" s="1">
         <v>17.05555555555556</v>
       </c>
-      <c r="O4">
+      <c r="R4" s="1">
+        <v>20.56688435388656</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>79</v>
+      </c>
+      <c r="U4">
         <v>2016</v>
       </c>
-      <c r="P4">
+      <c r="V4">
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1">
         <v>101</v>
@@ -700,27 +796,45 @@
         <v>2998.544454390609</v>
       </c>
       <c r="L5" s="3">
-        <v>15.74416694302886</v>
-      </c>
-      <c r="M5" s="1">
+        <v>17.81312171425239</v>
+      </c>
+      <c r="M5" s="3">
+        <v>9.871079671113662</v>
+      </c>
+      <c r="N5" s="3">
+        <v>6.098311514417047</v>
+      </c>
+      <c r="O5" s="3">
+        <v>45.46067338136409</v>
+      </c>
+      <c r="P5" s="1">
         <v>591</v>
       </c>
-      <c r="N5" s="1">
+      <c r="Q5" s="1">
         <v>23.64</v>
       </c>
-      <c r="O5">
+      <c r="R5" s="1">
+        <v>45.19114957599552</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>208</v>
+      </c>
+      <c r="U5">
         <v>2016</v>
       </c>
-      <c r="P5">
+      <c r="V5">
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1">
         <v>477</v>
@@ -750,18 +864,36 @@
         <v>5087.076865717208</v>
       </c>
       <c r="L6" s="3">
-        <v>20.96281755102498</v>
-      </c>
-      <c r="M6" s="1">
+        <v>21.37695663886886</v>
+      </c>
+      <c r="M6" s="3">
+        <v>15.58070588764584</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1.011042153300025</v>
+      </c>
+      <c r="O6" s="3">
+        <v>70.01644246718027</v>
+      </c>
+      <c r="P6" s="1">
         <v>1248</v>
       </c>
-      <c r="N6" s="1">
+      <c r="Q6" s="1">
         <v>12.48</v>
       </c>
-      <c r="O6">
+      <c r="R6" s="1">
+        <v>30.79468667274807</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1">
+        <v>196</v>
+      </c>
+      <c r="U6">
         <v>2017</v>
       </c>
-      <c r="P6">
+      <c r="V6">
         <v>2023</v>
       </c>
     </row>

--- a/dados/csv/2023/analise_descritiva/dados/sub-genero.xlsx
+++ b/dados/csv/2023/analise_descritiva/dados/sub-genero.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>modalidade</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>taxa_sucesso</t>
+  </si>
+  <si>
+    <t>meta</t>
+  </si>
+  <si>
+    <t>meta_avg</t>
+  </si>
+  <si>
+    <t>meta_std</t>
+  </si>
+  <si>
+    <t>meta_min</t>
+  </si>
+  <si>
+    <t>meta_max</t>
   </si>
   <si>
     <t>arrecadado_sucesso</t>
@@ -463,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -482,14 +497,19 @@
     <col min="13" max="13" width="9.140625" style="3"/>
     <col min="14" max="14" width="9.140625" style="3"/>
     <col min="15" max="15" width="9.140625" style="3"/>
-    <col min="16" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="9.140625" style="1"/>
-    <col min="19" max="19" width="9.140625" style="1"/>
-    <col min="20" max="20" width="9.140625" style="1"/>
+    <col min="16" max="16" width="9.140625" style="3"/>
+    <col min="17" max="17" width="9.140625" style="3"/>
+    <col min="18" max="18" width="9.140625" style="3"/>
+    <col min="19" max="19" width="9.140625" style="3"/>
+    <col min="20" max="20" width="9.140625" style="3"/>
+    <col min="21" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="9.140625" style="1"/>
+    <col min="23" max="23" width="9.140625" style="1"/>
+    <col min="24" max="24" width="9.140625" style="1"/>
+    <col min="25" max="25" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:27">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -556,13 +576,28 @@
       <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1">
         <v>28</v>
@@ -577,60 +612,75 @@
         <v>0.25</v>
       </c>
       <c r="G2" s="3">
+        <v>11850.23217085951</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1692.890310122787</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1741.340023039662</v>
+      </c>
+      <c r="J2" s="3">
+        <v>13.21358111812448</v>
+      </c>
+      <c r="K2" s="3">
+        <v>3923.898127062306</v>
+      </c>
+      <c r="L2" s="3">
         <v>1146.907757768185</v>
       </c>
-      <c r="H2" s="3">
+      <c r="M2" s="3">
         <v>163.843965395455</v>
       </c>
-      <c r="I2" s="3">
+      <c r="N2" s="3">
         <v>138.0196025252858</v>
       </c>
-      <c r="J2" s="3">
+      <c r="O2" s="3">
         <v>32.56218573781985</v>
       </c>
-      <c r="K2" s="3">
+      <c r="P2" s="3">
         <v>353.5789934980466</v>
       </c>
-      <c r="L2" s="3">
+      <c r="Q2" s="3">
         <v>31.16847126718795</v>
       </c>
-      <c r="M2" s="3">
+      <c r="R2" s="3">
         <v>26.9469146898807</v>
       </c>
-      <c r="N2" s="3">
+      <c r="S2" s="3">
         <v>8.140546434454963</v>
       </c>
-      <c r="O2" s="3">
+      <c r="T2" s="3">
         <v>84.0771316599004</v>
       </c>
-      <c r="P2" s="1">
+      <c r="U2" s="1">
         <v>37</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="V2" s="1">
         <v>5.285714285714286</v>
       </c>
-      <c r="R2" s="1">
-        <v>2.497617912751115</v>
-      </c>
-      <c r="S2" s="1">
+      <c r="W2" s="1">
+        <v>2.497617912751116</v>
+      </c>
+      <c r="X2" s="1">
         <v>3</v>
       </c>
-      <c r="T2" s="1">
+      <c r="Y2" s="1">
         <v>10</v>
       </c>
-      <c r="U2">
+      <c r="Z2">
         <v>2016</v>
       </c>
-      <c r="V2">
+      <c r="AA2">
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1">
         <v>9</v>
@@ -645,60 +695,75 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
         <v>1022.282285906739</v>
       </c>
-      <c r="H3" s="3">
+      <c r="M3" s="3">
         <v>511.1411429533696</v>
       </c>
-      <c r="I3" s="3">
+      <c r="N3" s="3">
         <v>38.60499948787582</v>
       </c>
-      <c r="J3" s="3">
+      <c r="O3" s="3">
         <v>483.8432860277894</v>
       </c>
-      <c r="K3" s="3">
+      <c r="P3" s="3">
         <v>538.4389998789497</v>
       </c>
-      <c r="L3" s="3">
+      <c r="Q3" s="3">
         <v>42.14013096402113</v>
       </c>
-      <c r="M3" s="3">
+      <c r="R3" s="3">
         <v>8.830628986869351</v>
       </c>
-      <c r="N3" s="3">
+      <c r="S3" s="3">
         <v>35.89593332526331</v>
       </c>
-      <c r="O3" s="3">
+      <c r="T3" s="3">
         <v>48.38432860277894</v>
       </c>
-      <c r="P3" s="1">
+      <c r="U3" s="1">
         <v>25</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="V3" s="1">
         <v>12.5</v>
       </c>
-      <c r="R3" s="1">
+      <c r="W3" s="1">
         <v>3.535533905932738</v>
       </c>
-      <c r="S3" s="1">
+      <c r="X3" s="1">
         <v>10</v>
       </c>
-      <c r="T3" s="1">
+      <c r="Y3" s="1">
         <v>15</v>
       </c>
-      <c r="U3">
+      <c r="Z3">
         <v>2021</v>
       </c>
-      <c r="V3">
+      <c r="AA3">
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1">
         <v>69</v>
@@ -713,60 +778,75 @@
         <v>0.2608695652173913</v>
       </c>
       <c r="G4" s="3">
-        <v>5551.368744100646</v>
+        <v>13609.25823278627</v>
       </c>
       <c r="H4" s="3">
+        <v>972.0898737704478</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1272.337369789563</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>3770.073700501662</v>
+      </c>
+      <c r="L4" s="3">
+        <v>5551.368744100645</v>
+      </c>
+      <c r="M4" s="3">
         <v>308.4093746722581</v>
       </c>
-      <c r="I4" s="3">
+      <c r="N4" s="3">
         <v>399.3649266622472</v>
       </c>
-      <c r="J4" s="3">
+      <c r="O4" s="3">
         <v>7.154956142241136</v>
       </c>
-      <c r="K4" s="3">
+      <c r="P4" s="3">
         <v>1753.365733305352</v>
       </c>
-      <c r="L4" s="3">
+      <c r="Q4" s="3">
         <v>19.42257389357928</v>
       </c>
-      <c r="M4" s="3">
+      <c r="R4" s="3">
         <v>8.876706034650423</v>
       </c>
-      <c r="N4" s="3">
+      <c r="S4" s="3">
         <v>5.929916345397809</v>
       </c>
-      <c r="O4" s="3">
+      <c r="T4" s="3">
         <v>35.80030877323957</v>
       </c>
-      <c r="P4" s="1">
+      <c r="U4" s="1">
         <v>307</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="V4" s="1">
         <v>17.05555555555556</v>
       </c>
-      <c r="R4" s="1">
+      <c r="W4" s="1">
         <v>20.56688435388656</v>
       </c>
-      <c r="S4" s="1">
+      <c r="X4" s="1">
         <v>1</v>
       </c>
-      <c r="T4" s="1">
+      <c r="Y4" s="1">
         <v>79</v>
       </c>
-      <c r="U4">
+      <c r="Z4">
         <v>2016</v>
       </c>
-      <c r="V4">
+      <c r="AA4">
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1">
         <v>101</v>
@@ -781,60 +861,75 @@
         <v>0.2475247524752475</v>
       </c>
       <c r="G5" s="3">
+        <v>29904.02695485389</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1869.001684678368</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2138.648557943156</v>
+      </c>
+      <c r="J5" s="3">
+        <v>63.11299939290937</v>
+      </c>
+      <c r="K5" s="3">
+        <v>8371.809869542562</v>
+      </c>
+      <c r="L5" s="3">
         <v>9304.802663330058</v>
       </c>
-      <c r="H5" s="3">
+      <c r="M5" s="3">
         <v>372.1921065332023</v>
       </c>
-      <c r="I5" s="3">
+      <c r="N5" s="3">
         <v>661.5791386661336</v>
       </c>
-      <c r="J5" s="3">
+      <c r="O5" s="3">
         <v>6.098311514417047</v>
       </c>
-      <c r="K5" s="3">
+      <c r="P5" s="3">
         <v>2998.544454390609</v>
       </c>
-      <c r="L5" s="3">
+      <c r="Q5" s="3">
         <v>17.81312171425239</v>
       </c>
-      <c r="M5" s="3">
-        <v>9.871079671113662</v>
-      </c>
-      <c r="N5" s="3">
+      <c r="R5" s="3">
+        <v>9.871079671113664</v>
+      </c>
+      <c r="S5" s="3">
         <v>6.098311514417047</v>
       </c>
-      <c r="O5" s="3">
+      <c r="T5" s="3">
         <v>45.46067338136409</v>
       </c>
-      <c r="P5" s="1">
+      <c r="U5" s="1">
         <v>591</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="V5" s="1">
         <v>23.64</v>
       </c>
-      <c r="R5" s="1">
+      <c r="W5" s="1">
         <v>45.19114957599552</v>
       </c>
-      <c r="S5" s="1">
+      <c r="X5" s="1">
         <v>1</v>
       </c>
-      <c r="T5" s="1">
+      <c r="Y5" s="1">
         <v>208</v>
       </c>
-      <c r="U5">
+      <c r="Z5">
         <v>2016</v>
       </c>
-      <c r="V5">
+      <c r="AA5">
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1">
         <v>477</v>
@@ -849,51 +944,66 @@
         <v>0.209643605870021</v>
       </c>
       <c r="G6" s="3">
-        <v>26161.59630367918</v>
+        <v>109835.540456445</v>
       </c>
       <c r="H6" s="3">
+        <v>1098.35540456445</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2287.409798579507</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>21176.91783511972</v>
+      </c>
+      <c r="L6" s="3">
+        <v>26161.59630367917</v>
+      </c>
+      <c r="M6" s="3">
         <v>261.6159630367918</v>
       </c>
-      <c r="I6" s="3">
+      <c r="N6" s="3">
         <v>711.5241734210925</v>
       </c>
-      <c r="J6" s="3">
+      <c r="O6" s="3">
         <v>1.087396962410123</v>
       </c>
-      <c r="K6" s="3">
+      <c r="P6" s="3">
         <v>5087.076865717208</v>
       </c>
-      <c r="L6" s="3">
-        <v>21.37695663886886</v>
-      </c>
-      <c r="M6" s="3">
+      <c r="Q6" s="3">
+        <v>21.37695663886887</v>
+      </c>
+      <c r="R6" s="3">
         <v>15.58070588764584</v>
       </c>
-      <c r="N6" s="3">
+      <c r="S6" s="3">
         <v>1.011042153300025</v>
       </c>
-      <c r="O6" s="3">
+      <c r="T6" s="3">
         <v>70.01644246718027</v>
       </c>
-      <c r="P6" s="1">
+      <c r="U6" s="1">
         <v>1248</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="V6" s="1">
         <v>12.48</v>
       </c>
-      <c r="R6" s="1">
-        <v>30.79468667274807</v>
-      </c>
-      <c r="S6" s="1">
+      <c r="W6" s="1">
+        <v>30.79468667274806</v>
+      </c>
+      <c r="X6" s="1">
         <v>1</v>
       </c>
-      <c r="T6" s="1">
+      <c r="Y6" s="1">
         <v>196</v>
       </c>
-      <c r="U6">
+      <c r="Z6">
         <v>2017</v>
       </c>
-      <c r="V6">
+      <c r="AA6">
         <v>2023</v>
       </c>
     </row>

--- a/dados/csv/2023/analise_descritiva/dados/sub-genero.xlsx
+++ b/dados/csv/2023/analise_descritiva/dados/sub-genero.xlsx
@@ -781,10 +781,10 @@
         <v>13609.25823278627</v>
       </c>
       <c r="H4" s="3">
-        <v>972.0898737704478</v>
+        <v>756.0699018214594</v>
       </c>
       <c r="I4" s="3">
-        <v>1272.337369789563</v>
+        <v>1187.801294409434</v>
       </c>
       <c r="J4" s="3">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>29904.02695485389</v>
       </c>
       <c r="H5" s="3">
-        <v>1869.001684678368</v>
+        <v>1196.161078194156</v>
       </c>
       <c r="I5" s="3">
-        <v>2138.648557943156</v>
+        <v>1922.757443193122</v>
       </c>
       <c r="J5" s="3">
-        <v>63.11299939290937</v>
+        <v>0</v>
       </c>
       <c r="K5" s="3">
         <v>8371.809869542562</v>
